--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>565074.6046283292</v>
+        <v>562372.9567257941</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>187.5255871663202</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>61.57494829067578</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>68.11693918766161</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>130.4949840230023</v>
+      </c>
+      <c r="Y3" t="n">
         <v>187.5255871663202</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>36.78756943016327</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.00402729331256</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>203.2662833005395</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>184.2364726783076</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>159.6306945531858</v>
+        <v>109.7553383425719</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>18.66907008313638</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>274.9632582378651</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.830884450382</v>
+        <v>11.830884450382</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>153.3535356043841</v>
+        <v>18.87931936509532</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>24.80534676768334</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436612</v>
+        <v>94.29488917436609</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.34503645282967</v>
       </c>
       <c r="S9" t="n">
         <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>101.7017203050552</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099065</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>213.5782365191953</v>
+        <v>200.5796577563636</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.6434959374211</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>206.4156589946468</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.0940871474035</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9245146134405</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>72.77126028643538</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936191</v>
       </c>
       <c r="F19" t="n">
-        <v>90.85912858529878</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.7846639981985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>94.30373791808204</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.372291733706</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703265</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471656</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>222.8161206669576</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833801</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428156</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174112</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148104</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148104</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832529</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912183</v>
+        <v>393.3574536167104</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>331.1605361513813</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330562</v>
@@ -4331,19 +4331,19 @@
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985593</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020275</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262266</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262266</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="T2" t="n">
-        <v>482.8222414097415</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097415</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097415</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="W2" t="n">
-        <v>293.4024563932564</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148104</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148104</v>
+        <v>589.7227393823989</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
         <v>15.00204697330562</v>
@@ -4437,22 +4437,22 @@
         <v>525.6547321810256</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810256</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810256</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="V3" t="n">
-        <v>525.6547321810256</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="W3" t="n">
-        <v>525.6547321810256</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="X3" t="n">
-        <v>336.2349471645405</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="Y3" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404142</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330562</v>
@@ -4504,34 +4504,34 @@
         <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1056.483593774099</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="C5" t="n">
-        <v>1056.483593774099</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="D5" t="n">
-        <v>1056.483593774099</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="E5" t="n">
-        <v>1056.483593774099</v>
+        <v>339.6324538322843</v>
       </c>
       <c r="F5" t="n">
-        <v>645.4976889844916</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G5" t="n">
-        <v>229.4666436878988</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4568,16 +4568,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4601,16 +4601,16 @@
         <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>1782.718007305293</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="W5" t="n">
-        <v>1429.949352035179</v>
+        <v>1098.886464691608</v>
       </c>
       <c r="X5" t="n">
-        <v>1056.483593774099</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="Y5" t="n">
-        <v>1056.483593774099</v>
+        <v>725.4207064305285</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5261380428188</v>
+        <v>364.3567837923351</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0731087616919</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1386991004406</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9012440949851</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4671,25 +4671,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1734.238298972664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1506.136709105928</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1270.984600874186</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W6" t="n">
-        <v>1270.984600874186</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X6" t="n">
-        <v>1270.984600874186</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.741475062887</v>
+        <v>364.3567837923351</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231.1630260146226</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>62.22684308671566</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>62.22684308671566</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>62.22684308671566</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
         <v>43.36919653809306</v>
@@ -4750,25 +4750,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="U7" t="n">
-        <v>231.1630260146226</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="V7" t="n">
-        <v>231.1630260146226</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="W7" t="n">
-        <v>231.1630260146226</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>231.1630260146226</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>231.1630260146226</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1598.545916970303</v>
+        <v>739.1879829255379</v>
       </c>
       <c r="C8" t="n">
-        <v>1229.583400029892</v>
+        <v>370.2254659851262</v>
       </c>
       <c r="D8" t="n">
-        <v>871.3177014231412</v>
+        <v>370.2254659851262</v>
       </c>
       <c r="E8" t="n">
-        <v>871.3177014231412</v>
+        <v>370.2254659851262</v>
       </c>
       <c r="F8" t="n">
-        <v>460.3317966335337</v>
+        <v>363.2799652359227</v>
       </c>
       <c r="G8" t="n">
-        <v>44.34100425941042</v>
+        <v>351.3295769022035</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420291</v>
+        <v>156.8280559420292</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002224</v>
+        <v>376.1555054002231</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707907</v>
+        <v>685.1523625707919</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937545</v>
+        <v>1060.640340937547</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733702</v>
+        <v>1446.817915733704</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659501</v>
+        <v>1798.139187659505</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284325</v>
+        <v>2063.482764284329</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228506</v>
+        <v>2214.571993228511</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970521</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970521</v>
+        <v>2085.83282117943</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.052422290546</v>
+        <v>2085.83282117943</v>
       </c>
       <c r="U8" t="n">
-        <v>1753.448478186853</v>
+        <v>1832.228877075737</v>
       </c>
       <c r="V8" t="n">
-        <v>1753.448478186853</v>
+        <v>1501.165989732166</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.448478186853</v>
+        <v>1148.397334462052</v>
       </c>
       <c r="X8" t="n">
-        <v>1598.545916970303</v>
+        <v>1129.32731490135</v>
       </c>
       <c r="Y8" t="n">
-        <v>1598.545916970303</v>
+        <v>739.1879829255379</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>756.2051521002052</v>
+        <v>286.1229250349156</v>
       </c>
       <c r="C9" t="n">
-        <v>731.1492462742624</v>
+        <v>286.1229250349156</v>
       </c>
       <c r="D9" t="n">
-        <v>582.2148366130111</v>
+        <v>286.1229250349156</v>
       </c>
       <c r="E9" t="n">
-        <v>422.9773816075557</v>
+        <v>286.1229250349156</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4428236344406</v>
+        <v>139.5883670618005</v>
       </c>
       <c r="G9" t="n">
         <v>139.5883670618005</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113444</v>
+        <v>92.51967467113484</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154148</v>
+        <v>253.0195209154156</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572517</v>
+        <v>515.1539122572533</v>
       </c>
       <c r="M9" t="n">
-        <v>840.40925104497</v>
+        <v>840.4092510449723</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.68177573868</v>
+        <v>1188.681775738683</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074208</v>
+        <v>1485.063300074211</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566937</v>
+        <v>1703.602536566941</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257633</v>
+        <v>1799.771032257638</v>
       </c>
       <c r="R9" t="n">
-        <v>1799.771032257633</v>
+        <v>1769.119480285083</v>
       </c>
       <c r="S9" t="n">
-        <v>1661.206416030636</v>
+        <v>1630.554864058086</v>
       </c>
       <c r="T9" t="n">
-        <v>1661.206416030636</v>
+        <v>1435.931352611238</v>
       </c>
       <c r="U9" t="n">
-        <v>1661.206416030636</v>
+        <v>1207.83117966636</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.054307798893</v>
+        <v>972.6790714346171</v>
       </c>
       <c r="W9" t="n">
-        <v>1171.816951070692</v>
+        <v>869.9500610254704</v>
       </c>
       <c r="X9" t="n">
-        <v>963.965450865159</v>
+        <v>662.0985608199376</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2051521002052</v>
+        <v>454.3382620549836</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="C10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="D10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016677</v>
+        <v>95.74470838016717</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810348</v>
+        <v>191.4295496810356</v>
       </c>
       <c r="M10" t="n">
-        <v>295.574081842264</v>
+        <v>295.5740818422652</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091221</v>
+        <v>405.0998157091237</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712697</v>
+        <v>485.9514692712715</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139701</v>
+        <v>536.0720553139722</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.761084908929</v>
+        <v>536.0720553139722</v>
       </c>
       <c r="R10" t="n">
-        <v>514.761084908929</v>
+        <v>536.0720553139722</v>
       </c>
       <c r="S10" t="n">
-        <v>514.761084908929</v>
+        <v>536.0720553139722</v>
       </c>
       <c r="T10" t="n">
-        <v>299.0254924652973</v>
+        <v>333.4663404085545</v>
       </c>
       <c r="U10" t="n">
-        <v>299.0254924652973</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="V10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="W10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="X10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.34100425941042</v>
+        <v>44.34100425941053</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1630.367550811545</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="C11" t="n">
-        <v>1261.405033871133</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="D11" t="n">
-        <v>903.1393352643827</v>
+        <v>1127.224630526824</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643827</v>
+        <v>741.43637792858</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747752</v>
+        <v>741.4363779285799</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592074</v>
+        <v>326.8206133697254</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592074</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706892</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796037</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377402</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3464.404023726243</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>3133.341136382672</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>2780.572481112558</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2407.106722851478</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2016.967390875667</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592074</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335451</v>
+        <v>470.7769964046659</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914967</v>
+        <v>488.5008422034056</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948025</v>
+        <v>996.4574081599342</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649235</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2284.877530981758</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.5587049922985</v>
+        <v>365.7608055583765</v>
       </c>
       <c r="C13" t="n">
-        <v>613.6225220643917</v>
+        <v>196.8246226304697</v>
       </c>
       <c r="D13" t="n">
-        <v>463.505882652056</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="E13" t="n">
-        <v>315.5927890696631</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="F13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177249</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1916.471636177249</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.406469901046</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.989299864086</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.999748966068</v>
+        <v>586.5533847019067</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.2071698225383</v>
+        <v>365.7608055583765</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5270,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5315,7 +5315,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>659.9487421954782</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>491.0125592675713</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675713</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851782</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851782</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2123.556221965915</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1834.480995310113</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1579.796507104226</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1290.379337067265</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1062.389786169248</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>841.5972070257179</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836019</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C19" t="n">
-        <v>565.709996955695</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433593</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E19" t="n">
-        <v>267.6802639609662</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138416</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138416</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5753,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.10353054737</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958737</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679667</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556309</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>335.9629114732378</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>189.0729639753275</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261134</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6458,28 +6458,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400711</v>
+        <v>560.7825789706079</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121642</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121642</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121642</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121642</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>577.862038843391</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>408.9258559154841</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>408.9258559154841</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330911</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330911</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1752.394291958026</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1497.709803752139</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1208.292633715178</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>980.3030828171609</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.5105036736308</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>344.9174178121642</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121642</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121642</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121642</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270442</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7372,7 +7372,7 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y40" t="n">
         <v>695.5020655703108</v>
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876689</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>411.963121559762</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D43" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G43" t="n">
-        <v>244.767022274642</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>103.05519111684</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614388</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179087</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400709</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>344.917417812164</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>344.917417812164</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>344.917417812164</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F46" t="n">
-        <v>344.917417812164</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270439</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>67.33400740195368</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.54334346504012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587080887</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>40.21312871038754</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.828130053814931e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>38.13892827624213</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856212</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>144.6341900408529</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345295005</v>
       </c>
       <c r="F19" t="n">
-        <v>54.56191943763247</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.0473161837388</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823255</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>71.22040037418681</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194236</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187153</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864982</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>63.3683537222866</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459324</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194233</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038606</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>930375.2105032911</v>
+        <v>930375.2105032913</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321416</v>
@@ -26323,13 +26323,13 @@
         <v>366294.6221371982</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450031</v>
@@ -26344,16 +26344,16 @@
         <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="N2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="N2" t="n">
-        <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
         <v>403573.299845003</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>392510.2442861772</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264001</v>
+        <v>12262.85603264161</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674525</v>
+        <v>395943.9567674513</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704287</v>
+        <v>189308.2687704286</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854469</v>
+        <v>49064.94472854475</v>
       </c>
       <c r="K3" t="n">
         <v>91259.95686487768</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949158</v>
+        <v>3074.447349949507</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931125</v>
+        <v>103409.2608931122</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202358</v>
+        <v>49839.57413202355</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,25 +26421,25 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607426</v>
+        <v>170817.8827607422</v>
       </c>
       <c r="E4" t="n">
         <v>15331.22144723313</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26451,13 +26451,13 @@
         <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687975</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687972</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404146</v>
+        <v>86153.75444404158</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-516358.3828344475</v>
+        <v>-516358.3828344474</v>
       </c>
       <c r="C6" t="n">
         <v>-241391.4312988055</v>
       </c>
       <c r="D6" t="n">
-        <v>141286.3916947177</v>
+        <v>141286.3916947164</v>
       </c>
       <c r="E6" t="n">
-        <v>-130118.0411448731</v>
+        <v>-130339.1724588466</v>
       </c>
       <c r="F6" t="n">
-        <v>97705.86124378761</v>
+        <v>97671.12331835182</v>
       </c>
       <c r="G6" t="n">
-        <v>287014.1300142163</v>
+        <v>286979.3920887805</v>
       </c>
       <c r="H6" t="n">
-        <v>287014.1300142162</v>
+        <v>286979.3920887809</v>
       </c>
       <c r="I6" t="n">
-        <v>287014.1300142163</v>
+        <v>286979.3920887806</v>
       </c>
       <c r="J6" t="n">
-        <v>237949.1852856715</v>
+        <v>237914.4473602357</v>
       </c>
       <c r="K6" t="n">
-        <v>195754.1731493386</v>
+        <v>195719.4352239029</v>
       </c>
       <c r="L6" t="n">
-        <v>283939.6826642671</v>
+        <v>283904.944738831</v>
       </c>
       <c r="M6" t="n">
-        <v>183604.8691211037</v>
+        <v>183570.1311956684</v>
       </c>
       <c r="N6" t="n">
-        <v>237174.5558821927</v>
+        <v>237139.8179567569</v>
       </c>
       <c r="O6" t="n">
-        <v>287014.1300142162</v>
+        <v>286979.3920887805</v>
       </c>
       <c r="P6" t="n">
-        <v>287014.1300142161</v>
+        <v>286979.3920887806</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573191</v>
+        <v>863.6234498573205</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26793,16 +26793,16 @@
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426302</v>
+        <v>554.2625532426316</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490093</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>305.2407236247792</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319634963</v>
+        <v>9.912785319636328</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576315</v>
+        <v>338.6177873576304</v>
       </c>
       <c r="F3" t="n">
         <v>165.7342631267231</v>
@@ -27015,13 +27015,13 @@
         <v>354.589369559843</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646703</v>
+        <v>12.14759651646841</v>
       </c>
       <c r="E4" t="n">
-        <v>414.958270706379</v>
+        <v>414.958270706378</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.487464150639</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="K4" t="n">
         <v>354.589369559843</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646703</v>
+        <v>12.14759651646841</v>
       </c>
       <c r="M4" t="n">
-        <v>414.958270706379</v>
+        <v>414.958270706378</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>354.589369559843</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646703</v>
+        <v>12.14759651646841</v>
       </c>
       <c r="M4" t="n">
-        <v>414.958270706379</v>
+        <v>414.958270706378</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543627</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>351.5228849393823</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988657</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510928</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>301.6141614908074</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,10 +27467,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715727</v>
+        <v>75.2780011804752</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.8951263471411</v>
+        <v>18.15710861098415</v>
       </c>
     </row>
     <row r="4">
@@ -27555,13 +27555,13 @@
         <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>105.7031924775541</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
         <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
         <v>68.6860405515972</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390155</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>203.6097624411719</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>120.0903320778754</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>46.05200122411856</v>
+        <v>95.92735743473241</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>126.7519779397949</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.4515011109318</v>
@@ -27822,19 +27822,19 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>11.55974009872591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163651</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151425</v>
+        <v>76.62727429151403</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731854</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>216.3775650740849</v>
+        <v>350.8517813133737</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>147.9031522206324</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036434004</v>
+        <v>35.56536036433994</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282986</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323794</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>149.9932628558644</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743401</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332447</v>
+        <v>16.8905104633243</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099045</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313613</v>
+        <v>107.2691031313612</v>
       </c>
       <c r="S10" t="n">
         <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
-        <v>7.713205016742876</v>
+        <v>20.71178377957466</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.395446886618932e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753039</v>
+        <v>3.471853064753045</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940207</v>
+        <v>35.55611519940212</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788917</v>
+        <v>133.8486152788919</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545835</v>
+        <v>294.669189054584</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855797</v>
+        <v>441.6327292855804</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160157</v>
+        <v>547.8844525160165</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563175</v>
+        <v>609.6270194563184</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765471</v>
+        <v>619.4914219765481</v>
       </c>
       <c r="O8" t="n">
-        <v>584.968183063909</v>
+        <v>584.9681830639099</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278183</v>
+        <v>499.2568105278191</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.92107264635</v>
+        <v>374.9210726463506</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787933</v>
+        <v>218.0887900787936</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171305995</v>
+        <v>79.11485171306008</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095644</v>
+        <v>15.19803679095646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277748245180243</v>
+        <v>0.2777482451802435</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296875</v>
+        <v>1.857605156296878</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213035</v>
+        <v>17.94055506213038</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963565996</v>
+        <v>63.95701963566006</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148728</v>
+        <v>175.5029503148731</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867634</v>
+        <v>299.9624957867638</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564772</v>
+        <v>403.3365932564778</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722389</v>
+        <v>470.6747801722396</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668789</v>
+        <v>483.1321410668797</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510376</v>
+        <v>441.9715215510383</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423393</v>
+        <v>354.7211109423398</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230888</v>
+        <v>237.1216687230892</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111341</v>
+        <v>115.3344675111343</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911079</v>
+        <v>34.50420103911085</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442226</v>
+        <v>7.487452362442238</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458471</v>
+        <v>0.1222108655458473</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037788</v>
+        <v>1.557353762037791</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066326</v>
+        <v>13.84629072066328</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291823</v>
+        <v>46.83387495291831</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760716</v>
+        <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258448</v>
+        <v>180.9361916258451</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306</v>
+        <v>231.5360311306003</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801598</v>
+        <v>244.1222810801602</v>
       </c>
       <c r="N10" t="n">
-        <v>238.317598876201</v>
+        <v>238.3175988762014</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833049</v>
+        <v>220.1248753833053</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377339</v>
+        <v>188.3548586377342</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284552</v>
+        <v>130.4071409284554</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580818</v>
+        <v>70.02428824580828</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387672</v>
+        <v>27.14042874387676</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343276</v>
+        <v>6.654147892343286</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842491</v>
+        <v>0.08494656883842505</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495315</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.5746757598382</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>156.4572543240557</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821482</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924475</v>
       </c>
       <c r="P12" t="n">
-        <v>221.1347650368268</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31926,10 +31926,10 @@
         <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806239</v>
@@ -31938,16 +31938,16 @@
         <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
         <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>539.0475940357379</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033305</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,7 +32570,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,25 +34451,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278972</v>
+        <v>113.6232845278977</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782405992</v>
+        <v>221.5428782405999</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460285</v>
+        <v>312.1180375460293</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290448</v>
+        <v>379.2807862290457</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799562</v>
+        <v>390.0783583799571</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422223</v>
+        <v>354.8699716422232</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725488</v>
+        <v>268.0238147725495</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719005</v>
+        <v>152.6153827719011</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661143</v>
+        <v>2.503252264661484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820608</v>
+        <v>48.66532364820637</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124044</v>
+        <v>162.1210568124048</v>
       </c>
       <c r="L9" t="n">
-        <v>264.782213476603</v>
+        <v>264.7822134766037</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502205</v>
+        <v>328.5407462502213</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835457</v>
+        <v>351.7904289835463</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065932</v>
+        <v>299.3752771065939</v>
       </c>
       <c r="P9" t="n">
-        <v>220.746703528009</v>
+        <v>220.7467035280096</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706733</v>
+        <v>97.1398946370677</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530945</v>
+        <v>51.92293345530973</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936167</v>
+        <v>96.65135484936204</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325548</v>
+        <v>105.1964971325552</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109678</v>
+        <v>110.6320544109682</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146214</v>
+        <v>81.66833693146248</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858627</v>
+        <v>50.62685458858658</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854792</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>17.90287454418153</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480031</v>
       </c>
       <c r="P12" t="n">
-        <v>87.16035762249658</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655351</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
         <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946636</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>396.4513495912935</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813122</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066234</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
